--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -391,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
@@ -411,64 +411,76 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Pessoa</t>
+          <t>Mensagem</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Mensagem</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>modificghjgar</t>
-        </is>
-      </c>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>5541995789107</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>5541995789107</t>
+        </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>israel</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>teste1</t>
-        </is>
-      </c>
+          <t>Teste1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>5541995789107</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>5541995789107</t>
+        </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>glixinski</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>teste2</t>
-        </is>
-      </c>
+          <t>Teste2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>5541995789107</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>5541995789107</t>
+        </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>ultimo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>teste2</t>
-        </is>
-      </c>
+          <t>Teste3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5541995789107</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Teste4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
